--- a/shiny/demo_files/Projects.xlsx
+++ b/shiny/demo_files/Projects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosyanez/GitHub Projects/Trello_Dashboard/shiny/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosyanez/GitHub Projects/Trello_Dashboard/shiny/demo_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96E91EB2-DFA0-A54B-B8E0-92208B63FEA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE42E87-0294-C544-B6B4-A4302D2F14F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="17260" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="108">
   <si>
     <t>State</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Michel</t>
   </si>
   <si>
-    <t>Martian Chronicles</t>
-  </si>
-  <si>
     <t>War and Peace</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>Isabel</t>
   </si>
   <si>
-    <t>Sub Terra</t>
-  </si>
-  <si>
     <t>Baldomero</t>
   </si>
   <si>
@@ -297,13 +291,79 @@
   </si>
   <si>
     <t>Update dates</t>
+  </si>
+  <si>
+    <t>The Martian Chronicles</t>
+  </si>
+  <si>
+    <t>Sub terra</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/From_the_Earth_to_the_Moon</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/War_and_Peace</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Do_Androids_Dream_of_Electric_Sheep%3F</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Dick_Sand,_A_Captain_at_Fifteen</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/The_House_of_the_Spirits</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/The_Secret_River</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/The_Lighthouse_at_the_End_of_the_World</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Twenty_Thousand_Leagues_Under_the_Sea</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Around_the_World_in_Eighty_Days</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Don_Quixote</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/So_Long,_and_Thanks_for_All_the_Fish</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Nineteen_Eighty-Four</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/The_Martian_Chronicles</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mansfield_Park</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mostly_Harmless</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/And_Another_Thing..._(novel)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/The_Restaurant_at_the_End_of_the_Universe</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Michael_Strogoff</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Paris_in_the_Twentieth_Century</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Sub_terra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -442,6 +502,14 @@
       <b/>
       <sz val="16"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -819,7 +887,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -862,8 +930,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -913,8 +982,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -948,6 +1018,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -959,14 +1030,6 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yy"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yy"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1014,6 +1077,14 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1065,9 +1136,9 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="State"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Scope"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Objectives"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Start" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="End" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Project Lead" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Start" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="End" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Project Lead" dataDxfId="5"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PM"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Link"/>
   </tableColumns>
@@ -1076,15 +1147,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="ProjectUpdates" displayName="ProjectUpdates" ref="A1:D24" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="ProjectUpdates" displayName="ProjectUpdates" ref="A1:D24" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A1:D24" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="No"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Project" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Project" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(ProjectUpdates[[#This Row],[No]],ProjectList[[#All],[No]:[Project Name]],2,0),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Update/Comments" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Update/Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1389,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1403,7 +1474,7 @@
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="28" style="7" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="24.1640625" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
@@ -1449,7 +1520,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2" s="22">
         <v>43101</v>
@@ -1461,7 +1532,10 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1469,13 +1543,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3" s="22">
         <v>42370</v>
@@ -1484,10 +1558,13 @@
         <v>43653</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1501,7 +1578,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" s="22">
         <v>43802</v>
@@ -1513,7 +1590,10 @@
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="J4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1521,13 +1601,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22">
@@ -1537,7 +1617,10 @@
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1545,23 +1628,26 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22">
         <v>44105</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1569,23 +1655,26 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22">
         <v>44075</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1599,7 +1688,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22">
@@ -1611,19 +1700,22 @@
       <c r="I8" t="s">
         <v>25</v>
       </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F9" s="22">
         <v>43894</v>
@@ -1635,7 +1727,10 @@
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1643,13 +1738,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10" s="22">
         <v>43864</v>
@@ -1661,7 +1756,10 @@
         <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="J10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1669,13 +1767,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F11" s="22">
         <v>43831</v>
@@ -1684,10 +1782,13 @@
         <v>44013</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="J11" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -1701,7 +1802,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F12" s="22">
         <v>43922</v>
@@ -1713,7 +1814,10 @@
         <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1727,7 +1831,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22">
@@ -1737,7 +1841,10 @@
         <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="J13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1745,13 +1852,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" s="22">
         <v>44044</v>
@@ -1760,10 +1867,13 @@
         <v>44105</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1771,7 +1881,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -1781,10 +1891,13 @@
         <v>44105</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="J15" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1792,13 +1905,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22">
@@ -1808,15 +1921,18 @@
         <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -1829,15 +1945,18 @@
         <v>19</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -1850,15 +1969,18 @@
         <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -1871,15 +1993,18 @@
         <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="J19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -1890,15 +2015,18 @@
         <v>16</v>
       </c>
       <c r="I20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -1908,52 +2036,58 @@
         <v>44092</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="J21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J20" r:id="rId1" display="https://en.m.wikipedia.org/wiki/Paris_in_the_Twentieth_Century" xr:uid="{5EDB207A-BF52-6B4B-999D-7BDAAF8B6BE9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1997,7 +2131,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2057,7 +2191,7 @@
         <v>Dick Sand, A Captain at Fifteen</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2072,7 +2206,7 @@
         <v>The House of the Spirits</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2087,7 +2221,7 @@
         <v>The House of the Spirits</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2102,7 +2236,7 @@
         <v>The Lighthouse at the End of the World</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2117,7 +2251,7 @@
         <v>Twenty Thousand Leagues Under the Sea</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2132,7 +2266,7 @@
         <v>Twenty Thousand Leagues Under the Sea</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2147,7 +2281,7 @@
         <v>Around the World in Eighty Days</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2162,7 +2296,7 @@
         <v>The Ingenious Gentleman Don Quixote of La Mancha</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2177,7 +2311,7 @@
         <v>The Ingenious Gentleman Don Quixote of La Mancha</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2192,7 +2326,7 @@
         <v>The Ingenious Gentleman Don Quixote of La Mancha</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2207,7 +2341,7 @@
         <v>So Long, and Thanks for All the Fish</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2222,7 +2356,7 @@
         <v>So Long, and Thanks for All the Fish</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2237,7 +2371,7 @@
         <v>Nineteen Eighty-Four</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2316,18 +2450,18 @@
         <v>7</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="16">
         <v>8</v>
@@ -2337,7 +2471,7 @@
         <v>Twenty Thousand Leagues Under the Sea</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" s="18">
         <v>43739</v>
@@ -2348,7 +2482,7 @@
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="19">
         <v>11</v>
@@ -2358,7 +2492,7 @@
         <v>So Long, and Thanks for All the Fish</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E3" s="21">
         <v>43987</v>
@@ -2369,23 +2503,23 @@
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="16">
         <v>13</v>
       </c>
       <c r="C4" s="16" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B4,ProjectList[[#All],[No]:[Project Name]],2,0),"")</f>
-        <v>Martian Chronicles</v>
+        <v>The Martian Chronicles</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E4" s="18">
         <v>43957</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
